--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BBEA8D-1FF6-42BF-B10B-532006F92C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150B601-E8F6-430F-8DE8-608299BCE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>Коллекции</t>
   </si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>Имплементировать данную функцию на этапе создания маршруток</t>
+  </si>
+  <si>
+    <t>Можно реализовать в том же окне</t>
+  </si>
+  <si>
+    <t>Модели -&gt; форма добавления новой модели</t>
+  </si>
+  <si>
+    <t>Сделать таблицу пользователей</t>
+  </si>
+  <si>
+    <t>Модели -&gt; Артикулы -&gt; запретить повторения (Indexed- No duplicates)</t>
+  </si>
+  <si>
+    <t>ВМ</t>
   </si>
 </sst>
 </file>
@@ -434,8 +449,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H24" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H26" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -463,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FDBB83DB-2C93-444A-9298-AE1FD49C581B}" name="Table4" displayName="Table4" ref="A10:C13" totalsRowShown="0">
-  <autoFilter ref="A10:C13" xr:uid="{FDBB83DB-2C93-444A-9298-AE1FD49C581B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FDBB83DB-2C93-444A-9298-AE1FD49C581B}" name="Table4" displayName="Table4" ref="A10:C14" totalsRowShown="0">
+  <autoFilter ref="A10:C14" xr:uid="{FDBB83DB-2C93-444A-9298-AE1FD49C581B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7D984A36-CA2A-4FAC-B718-98AF93F18174}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{AE03CF3D-D43D-410A-8D25-DD01AA3F4E54}" name="Проблемы / пояснения"/>
@@ -737,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,6 +1190,34 @@
         <v>62</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1186,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,21 +1272,33 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="1">
+        <v>45121</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="1">
+        <v>45121</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -1273,91 +1328,88 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45083</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
-        <v>45086</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
-        <v>45090</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
-        <v>45092</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1">
-        <v>45093</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
-        <v>45097</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>45099</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>45099</v>
@@ -1365,17 +1417,25 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
-        <v>45103</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>45106</v>
       </c>
     </row>
@@ -1383,7 +1443,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150B601-E8F6-430F-8DE8-608299BCE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D75B990-8374-492B-9D6F-57123BE86931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>Коллекции</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Низкий</t>
   </si>
   <si>
-    <t>Активный</t>
-  </si>
-  <si>
     <t>Подготовительные операции</t>
   </si>
   <si>
@@ -266,6 +263,36 @@
   </si>
   <si>
     <t>ВМ</t>
+  </si>
+  <si>
+    <t>Обзор заказов -&gt; добавить внешний номер, заказчика, % выпполнения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срочный </t>
+  </si>
+  <si>
+    <t>Объединение заказов</t>
+  </si>
+  <si>
+    <t>Сделать функцию или запрос на поиск схожих заказов, которые можно объединить</t>
+  </si>
+  <si>
+    <t>Создать форму, в которой указываются заказы, которые нужно объединить</t>
+  </si>
+  <si>
+    <t>Создать таблицу для перемещения туда объединенных заказов (единый заказа остается в обычных ордерах)</t>
+  </si>
+  <si>
+    <t>Объединение ордеров (ЭПИК)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активный </t>
+  </si>
+  <si>
+    <t>Нужен тест</t>
+  </si>
+  <si>
+    <t>Печатная форма для закройки</t>
   </si>
 </sst>
 </file>
@@ -449,8 +476,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H26" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H28" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -484,6 +511,18 @@
     <tableColumn id="1" xr3:uid="{7D984A36-CA2A-4FAC-B718-98AF93F18174}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{AE03CF3D-D43D-410A-8D25-DD01AA3F4E54}" name="Проблемы / пояснения"/>
     <tableColumn id="3" xr3:uid="{A14288C8-60B0-4930-AE1F-6E17EF926A9D}" name="Дата"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C35" totalsRowShown="0">
+  <autoFilter ref="A30:C35" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
+    <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
+    <tableColumn id="3" xr3:uid="{9C07B9C4-6E55-480F-8CD7-A0697DC298CF}" name="Дата"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -809,7 +848,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,7 +865,7 @@
         <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -860,7 +899,7 @@
         <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,7 +916,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +933,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,7 +950,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,7 +967,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,7 +984,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -962,7 +1001,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,7 +1018,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,7 +1035,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1013,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,7 +1069,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1047,7 +1086,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,7 +1103,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,7 +1120,7 @@
         <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,27 +1137,31 @@
         <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="10">
         <v>45099</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>64</v>
+      <c r="F20" s="10">
+        <v>45141</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="10">
         <v>45083</v>
@@ -1142,7 +1185,7 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>42</v>
@@ -1159,7 +1202,7 @@
         <v>41</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,27 +1210,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>62</v>
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45141</v>
+      </c>
+      <c r="F24" s="10">
+        <v>45141</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,13 +1248,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,13 +1262,47 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>75</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45141</v>
+      </c>
+      <c r="F27" s="10">
+        <v>45141</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45140</v>
       </c>
     </row>
   </sheetData>
@@ -1229,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1415,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,7 +1430,7 @@
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1361,7 +1448,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
         <v>45083</v>
@@ -1369,7 +1456,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
         <v>45086</v>
@@ -1377,7 +1464,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
         <v>45090</v>
@@ -1385,7 +1472,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>45092</v>
@@ -1393,7 +1480,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
         <v>45093</v>
@@ -1401,7 +1488,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
         <v>45097</v>
@@ -1409,7 +1496,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1">
         <v>45099</v>
@@ -1417,7 +1504,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1">
         <v>45099</v>
@@ -1425,7 +1512,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1">
         <v>45103</v>
@@ -1433,22 +1520,70 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
         <v>45106</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D75B990-8374-492B-9D6F-57123BE86931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9DDD8-3B1C-41A4-8636-1370B4DEA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>Коллекции</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Создать форму, в которой указываются заказы, которые нужно объединить</t>
   </si>
   <si>
-    <t>Создать таблицу для перемещения туда объединенных заказов (единый заказа остается в обычных ордерах)</t>
-  </si>
-  <si>
     <t>Объединение ордеров (ЭПИК)</t>
   </si>
   <si>
@@ -293,6 +290,12 @@
   </si>
   <si>
     <t>Печатная форма для закройки</t>
+  </si>
+  <si>
+    <t>Процедура создания объединенного заказа (создание новой записи)</t>
+  </si>
+  <si>
+    <t>Создать таблицу для перемещения туда объединяемых заказов (единый заказа остается в обычных ордерах)</t>
   </si>
 </sst>
 </file>
@@ -476,8 +479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H28" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H29" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -517,8 +520,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C35" totalsRowShown="0">
-  <autoFilter ref="A30:C35" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C36" totalsRowShown="0">
+  <autoFilter ref="A30:C36" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>40</v>
@@ -1296,13 +1299,18 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="E28" s="7">
         <v>45140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1318,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,21 +1564,30 @@
       <c r="A32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>45142</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45145</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>45145</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9DDD8-3B1C-41A4-8636-1370B4DEA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEEBC0-D207-48FA-BB2E-BE15207C4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>Коллекции</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Размерные сетки -&gt; разбить для удобства по категориям</t>
   </si>
   <si>
-    <t>Технологии -&gt; печатная форма для цеха</t>
-  </si>
-  <si>
     <t>Архив -&gt; создать таблицу</t>
   </si>
   <si>
@@ -296,6 +293,24 @@
   </si>
   <si>
     <t>Создать таблицу для перемещения туда объединяемых заказов (единый заказа остается в обычных ордерах)</t>
+  </si>
+  <si>
+    <t>Технологии -&gt; печатная форма для цеха и подробная</t>
+  </si>
+  <si>
+    <t>Сделать возможным редактировать размерные сетки после создания заказа (до маршруток)</t>
+  </si>
+  <si>
+    <t>Разъединение обяединенных заказов</t>
+  </si>
+  <si>
+    <t>Delete order</t>
+  </si>
+  <si>
+    <t>Создать форму для обзора обяединенных заказов + печать размерных сеток  по ним</t>
+  </si>
+  <si>
+    <t>Редактирование размерной сетки обяединяемых заказов</t>
   </si>
 </sst>
 </file>
@@ -479,8 +494,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H29" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H34" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H34" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -520,8 +535,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C36" totalsRowShown="0">
-  <autoFilter ref="A30:C36" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C37" totalsRowShown="0">
+  <autoFilter ref="A30:C37" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
@@ -794,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -845,13 +860,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,13 +877,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,13 +894,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -896,13 +911,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,13 +928,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,30 +945,39 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>59</v>
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45148</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,16 +1002,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,16 +1019,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,16 +1036,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,16 +1053,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,16 +1070,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,16 +1087,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,16 +1104,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,16 +1121,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,16 +1138,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,16 +1155,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,13 +1172,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E20" s="10">
         <v>45099</v>
@@ -1164,7 +1188,7 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1172,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="10">
         <v>45083</v>
@@ -1188,7 +1212,7 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,16 +1220,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1213,13 +1237,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1227,13 +1251,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E24" s="10">
         <v>45141</v>
@@ -1243,7 +1267,7 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1251,13 +1275,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,13 +1289,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1279,11 +1303,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="10">
         <v>45141</v>
@@ -1299,18 +1323,106 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="7">
         <v>45140</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F29" s="10">
+        <v>45148</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F31" s="10">
+        <v>45148</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10">
+        <v>45149</v>
+      </c>
+      <c r="F33" s="10">
+        <v>45149</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,7 +1535,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1550,7 @@
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1456,7 +1568,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>45083</v>
@@ -1464,7 +1576,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1">
         <v>45086</v>
@@ -1472,7 +1584,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1">
         <v>45090</v>
@@ -1480,7 +1592,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1">
         <v>45092</v>
@@ -1488,7 +1600,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>45093</v>
@@ -1496,7 +1608,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>45097</v>
@@ -1504,7 +1616,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>45099</v>
@@ -1512,7 +1624,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1">
         <v>45099</v>
@@ -1520,7 +1632,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>45103</v>
@@ -1528,7 +1640,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>45106</v>
@@ -1536,7 +1648,7 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1554,7 +1666,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
         <v>45141</v>
@@ -1562,7 +1674,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1">
         <v>45142</v>
@@ -1570,7 +1682,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1">
         <v>45145</v>
@@ -1578,15 +1690,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1">
         <v>45145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45148</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEEBC0-D207-48FA-BB2E-BE15207C4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF56356-2641-4251-BB01-D57D4D4AC167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Коллекции</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>Редактирование размерной сетки обяединяемых заказов</t>
+  </si>
+  <si>
+    <t>Редактирование размерной сетки объединяемых заказов</t>
+  </si>
+  <si>
+    <t>Разъединение объединенных заказов</t>
+  </si>
+  <si>
+    <t>Удаление заказа</t>
   </si>
 </sst>
 </file>
@@ -494,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H34" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H34" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H37" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -535,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C37" totalsRowShown="0">
-  <autoFilter ref="A30:C37" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C38" totalsRowShown="0">
+  <autoFilter ref="A30:C38" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
@@ -809,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,6 +1434,72 @@
         <v>56</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F34" s="10">
+        <v>45148</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10">
+        <v>45154</v>
+      </c>
+      <c r="F35" s="10">
+        <v>45154</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10">
+        <v>45154</v>
+      </c>
+      <c r="F36" s="10">
+        <v>45154</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1436,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,10 +1789,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1">
         <v>45148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45154</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF56356-2641-4251-BB01-D57D4D4AC167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F496CB-77F3-4D32-AD58-60F09A0084AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>Коллекции</t>
   </si>
@@ -301,12 +301,6 @@
     <t>Сделать возможным редактировать размерные сетки после создания заказа (до маршруток)</t>
   </si>
   <si>
-    <t>Разъединение обяединенных заказов</t>
-  </si>
-  <si>
-    <t>Delete order</t>
-  </si>
-  <si>
     <t>Создать форму для обзора обяединенных заказов + печать размерных сеток  по ним</t>
   </si>
   <si>
@@ -320,6 +314,15 @@
   </si>
   <si>
     <t>Удаление заказа</t>
+  </si>
+  <si>
+    <t>Удаление / добавление / корректировка размерной сетки</t>
+  </si>
+  <si>
+    <t>Создать форму для обзора объединенных заказов + печать размерных сеток  по ним</t>
+  </si>
+  <si>
+    <t>2-я размерная сетка -&gt; AltSize</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H37" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H36" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H36" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -544,8 +547,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C38" totalsRowShown="0">
-  <autoFilter ref="A30:C38" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C39" totalsRowShown="0">
+  <autoFilter ref="A30:C39" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,13 +1372,21 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="E30" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F30" s="10">
+        <v>45148</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1384,17 +1395,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="10">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="F31" s="10">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
@@ -1405,10 +1416,21 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="B32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F32" s="10">
+        <v>45148</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1417,17 +1439,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="10">
-        <v>45149</v>
+        <v>45154</v>
       </c>
       <c r="F33" s="10">
-        <v>45149</v>
+        <v>45154</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
@@ -1435,7 +1457,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -1446,10 +1468,10 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="10">
-        <v>45148</v>
+        <v>45154</v>
       </c>
       <c r="F34" s="10">
-        <v>45148</v>
+        <v>45154</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
@@ -1468,10 +1490,10 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="10">
-        <v>45154</v>
+        <v>45163</v>
       </c>
       <c r="F35" s="10">
-        <v>45154</v>
+        <v>45163</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
@@ -1479,25 +1501,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10">
-        <v>45154</v>
-      </c>
-      <c r="F36" s="10">
-        <v>45154</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8" t="s">
-        <v>56</v>
+      <c r="B36" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1789,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1">
         <v>45149</v>
@@ -1789,7 +1797,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1">
         <v>45148</v>
@@ -1797,10 +1805,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1">
         <v>45154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45163</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F496CB-77F3-4D32-AD58-60F09A0084AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A07496-1ED9-474C-9E27-932AE59DBC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>Коллекции</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>2-я размерная сетка -&gt; AltSize</t>
+  </si>
+  <si>
+    <t>Разъединение объединенных заказов -&gt; правки, исправление отображения размерной сетки</t>
+  </si>
+  <si>
+    <t>Изменение дзайна размерной сетки ордера</t>
   </si>
 </sst>
 </file>
@@ -506,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H36" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H36" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H38" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
@@ -821,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,6 +1513,48 @@
       <c r="B36" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10">
+        <v>45168</v>
+      </c>
+      <c r="F37" s="10">
+        <v>45168</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10">
+        <v>45167</v>
+      </c>
+      <c r="F38" s="10">
+        <v>45167</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A07496-1ED9-474C-9E27-932AE59DBC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40347739-5714-4D53-BCEF-A7D8CCF2030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>Коллекции</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Дата прихода кроя (в ордера?)</t>
   </si>
   <si>
-    <t>Дата готовности заказа (относится к статусу "законченные ордера")</t>
-  </si>
-  <si>
     <t>Возможность менять параметр "давальческий заказ" и обратно</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>Объединение ордеров (ЭПИК)</t>
   </si>
   <si>
-    <t xml:space="preserve">Активный </t>
-  </si>
-  <si>
     <t>Нужен тест</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>Сделать возможным редактировать размерные сетки после создания заказа (до маршруток)</t>
   </si>
   <si>
-    <t>Создать форму для обзора обяединенных заказов + печать размерных сеток  по ним</t>
-  </si>
-  <si>
     <t>Редактирование размерной сетки обяединяемых заказов</t>
   </si>
   <si>
@@ -328,7 +319,34 @@
     <t>Разъединение объединенных заказов -&gt; правки, исправление отображения размерной сетки</t>
   </si>
   <si>
-    <t>Изменение дзайна размерной сетки ордера</t>
+    <t>Изменение дизайна размерной сетки ордера</t>
+  </si>
+  <si>
+    <t>Дата готовности заказа (относится к статусу "законченные ордера") -&gt; пока работает в ручном режиме</t>
+  </si>
+  <si>
+    <t>Технологии -&gt; конфигурация по умолчанию = 1</t>
+  </si>
+  <si>
+    <t>Печать общей размерной сетки без объединения заказов</t>
+  </si>
+  <si>
+    <t>Субъект</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <t>Дополнительные операции (упаковка,наклейки,ОТК)</t>
+  </si>
+  <si>
+    <t>1. вариант - в технологиях для каждой модели вручную определять дополнительные операции (Наклейки,ОТК,упаковка) =&gt; дополнительные операции при создании заказа добавляться автоматически не будут (т.е. они будут считываться только из технологии).  2. вариант</t>
+  </si>
+  <si>
+    <t>Появилась модель, по технологии которой не нужно клеить наклейки на пакеты."Наклейки на пакеты" является дополнительной операцией, которая до данного момента всегда автоматически добавлялась в маршрутки при создании заказа.Всвязи с этим появилась необходимость "указать" системе, что данную операцию добавлять в маршрутки не нужно!</t>
   </si>
 </sst>
 </file>
@@ -445,7 +463,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,9 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,13 +485,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -512,17 +542,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H38" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H39" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:H39" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
-    <tableColumn id="3" xr3:uid="{9D2E30E9-10D8-4524-86AE-72809AFD746A}" name="Статус" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0120A919-79A7-41C5-839C-3E6AE99F464E}" name="Приоритет" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{6D1BD1CC-FE6B-40C1-97EA-283CBBC82614}" name="Дата (старт)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{246F270D-BEEE-4483-A4FE-DD909F7648B3}" name="Дата выполнения" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{393F6CAB-8915-4D0E-82B3-A268F14924D2}" name="Крайний срок" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{38A3AAFB-9FEE-49FD-A26B-131F023B08D0}" name="Обратная связь" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9D2E30E9-10D8-4524-86AE-72809AFD746A}" name="Статус" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0120A919-79A7-41C5-839C-3E6AE99F464E}" name="Приоритет" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{6D1BD1CC-FE6B-40C1-97EA-283CBBC82614}" name="Дата (старт)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{246F270D-BEEE-4483-A4FE-DD909F7648B3}" name="Дата выполнения" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{393F6CAB-8915-4D0E-82B3-A268F14924D2}" name="Крайний срок" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{38A3AAFB-9FEE-49FD-A26B-131F023B08D0}" name="Обратная связь" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,6 +592,19 @@
     <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
     <tableColumn id="3" xr3:uid="{9C07B9C4-6E55-480F-8CD7-A0697DC298CF}" name="Дата"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{18899018-61C2-4AFD-AAB0-3EAB483493C5}" name="Субъект" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{27425A45-D55B-476D-8874-77B26713B880}" name="Вопрос" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EB1506EF-A939-4D46-ADD3-72F334A20034}" name="Решение" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D3868C8A-C85B-4407-9362-BE39A7FE71EA}" name="Статус"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -827,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -878,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -895,30 +941,39 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>54</v>
+      <c r="E4" s="9">
+        <v>45169</v>
+      </c>
+      <c r="F4" s="9">
+        <v>45169</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -929,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,13 +1001,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,39 +1018,39 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>45148</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>45148</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>58</v>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,13 +1061,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,13 +1078,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1040,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1057,13 +1112,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1074,13 +1129,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,13 +1146,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,13 +1163,13 @@
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,16 +1177,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,16 +1194,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,16 +1211,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1173,64 +1228,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>45099</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>45141</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>62</v>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="9">
+        <v>45083</v>
+      </c>
+      <c r="F21" s="9">
+        <v>45098</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="10">
-        <v>45083</v>
-      </c>
-      <c r="F21" s="10">
-        <v>45098</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,16 +1293,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,37 +1310,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>45141</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>45141</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
-        <v>60</v>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1293,268 +1348,302 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9">
+        <v>45170</v>
+      </c>
+      <c r="F26" s="9">
+        <v>45170</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>45141</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>45141</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="B28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9">
         <v>45140</v>
       </c>
+      <c r="F28" s="9">
+        <v>45167</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>45148</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>45148</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
-        <v>56</v>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="9">
+        <v>45148</v>
+      </c>
+      <c r="F30" s="9">
+        <v>45148</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9">
+        <v>45149</v>
+      </c>
+      <c r="F31" s="9">
+        <v>45149</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9">
+        <v>45154</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45154</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="10">
-        <v>45148</v>
-      </c>
-      <c r="F30" s="10">
-        <v>45148</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="C33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9">
+        <v>45154</v>
+      </c>
+      <c r="F33" s="9">
+        <v>45154</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9">
+        <v>45163</v>
+      </c>
+      <c r="F34" s="9">
+        <v>45163</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9">
+        <v>45168</v>
+      </c>
+      <c r="F36" s="9">
+        <v>45168</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9">
+        <v>45167</v>
+      </c>
+      <c r="F37" s="9">
+        <v>45167</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9">
+        <v>45170</v>
+      </c>
+      <c r="F38" s="9">
+        <v>45170</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10">
-        <v>45149</v>
-      </c>
-      <c r="F31" s="10">
-        <v>45149</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10">
-        <v>45148</v>
-      </c>
-      <c r="F32" s="10">
-        <v>45148</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10">
-        <v>45154</v>
-      </c>
-      <c r="F33" s="10">
-        <v>45154</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10">
-        <v>45154</v>
-      </c>
-      <c r="F34" s="10">
-        <v>45154</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10">
-        <v>45163</v>
-      </c>
-      <c r="F35" s="10">
-        <v>45163</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10">
-        <v>45168</v>
-      </c>
-      <c r="F37" s="10">
-        <v>45168</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10">
-        <v>45167</v>
-      </c>
-      <c r="F38" s="10">
-        <v>45167</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="H39" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,7 +1659,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A29" sqref="A29:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,11 +1670,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1627,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,11 +1728,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1666,7 +1755,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,11 +1769,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1699,7 +1788,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>45083</v>
@@ -1707,7 +1796,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>45086</v>
@@ -1715,7 +1804,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
         <v>45090</v>
@@ -1723,7 +1812,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>45092</v>
@@ -1731,7 +1820,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>45093</v>
@@ -1739,7 +1828,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>45097</v>
@@ -1747,7 +1836,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>45099</v>
@@ -1755,7 +1844,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1">
         <v>45099</v>
@@ -1763,7 +1852,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>45103</v>
@@ -1771,18 +1860,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1">
         <v>45106</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1797,7 +1886,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1">
         <v>45141</v>
@@ -1805,7 +1894,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1">
         <v>45142</v>
@@ -1813,7 +1902,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>45145</v>
@@ -1821,7 +1910,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1">
         <v>45148</v>
@@ -1829,7 +1918,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1">
         <v>45145</v>
@@ -1837,7 +1926,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1">
         <v>45149</v>
@@ -1845,7 +1934,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1">
         <v>45148</v>
@@ -1853,7 +1942,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1">
         <v>45154</v>
@@ -1861,7 +1950,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1">
         <v>45163</v>
@@ -1885,12 +1974,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D85C7F-3520-4488-88D2-B107F6541467}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40347739-5714-4D53-BCEF-A7D8CCF2030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BBCB4-D57A-4C19-B4F7-191A738F6E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <t>Коллекции</t>
   </si>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>Появилась модель, по технологии которой не нужно клеить наклейки на пакеты."Наклейки на пакеты" является дополнительной операцией, которая до данного момента всегда автоматически добавлялась в маршрутки при создании заказа.Всвязи с этим появилась необходимость "указать" системе, что данную операцию добавлять в маршрутки не нужно!</t>
+  </si>
+  <si>
+    <t>Контроль изменения технологий</t>
+  </si>
+  <si>
+    <t>Закрыть доступ на несанкционированное изменение технологий</t>
+  </si>
+  <si>
+    <t>Обеспечить разделение конфигураций технологии (1-я конфигурация всегда активная,2-я и последующие - неактивные/неутвержденные)</t>
+  </si>
+  <si>
+    <t>Уведомление об измененных / неподтвержденных технологиях</t>
   </si>
 </sst>
 </file>
@@ -482,14 +494,14 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -497,7 +509,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -542,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H39" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H39" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:H39" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
     <sortCondition ref="A1:A37"/>
@@ -550,12 +565,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
-    <tableColumn id="3" xr3:uid="{9D2E30E9-10D8-4524-86AE-72809AFD746A}" name="Статус" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0120A919-79A7-41C5-839C-3E6AE99F464E}" name="Приоритет" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{6D1BD1CC-FE6B-40C1-97EA-283CBBC82614}" name="Дата (старт)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{246F270D-BEEE-4483-A4FE-DD909F7648B3}" name="Дата выполнения" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{393F6CAB-8915-4D0E-82B3-A268F14924D2}" name="Крайний срок" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{38A3AAFB-9FEE-49FD-A26B-131F023B08D0}" name="Обратная связь" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9D2E30E9-10D8-4524-86AE-72809AFD746A}" name="Статус" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0120A919-79A7-41C5-839C-3E6AE99F464E}" name="Приоритет" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{6D1BD1CC-FE6B-40C1-97EA-283CBBC82614}" name="Дата (старт)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{246F270D-BEEE-4483-A4FE-DD909F7648B3}" name="Дата выполнения" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{393F6CAB-8915-4D0E-82B3-A268F14924D2}" name="Крайний срок" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{38A3AAFB-9FEE-49FD-A26B-131F023B08D0}" name="Обратная связь" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,12 +613,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}" name="Table6" displayName="Table6" ref="A42:C45" totalsRowShown="0">
+  <autoFilter ref="A42:C45" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{475E910C-A0E0-489C-A4E1-67D086B9474A}" name="Описание"/>
+    <tableColumn id="2" xr3:uid="{88A67423-3000-489F-976A-DC4D835C5DE4}" name="Проблемы / пояснения"/>
+    <tableColumn id="3" xr3:uid="{7C0149BC-8127-49A2-8AF8-5CCCCA88B50A}" name="Дата" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18899018-61C2-4AFD-AAB0-3EAB483493C5}" name="Субъект" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{27425A45-D55B-476D-8874-77B26713B880}" name="Вопрос" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{EB1506EF-A939-4D46-ADD3-72F334A20034}" name="Решение" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18899018-61C2-4AFD-AAB0-3EAB483493C5}" name="Субъект" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{27425A45-D55B-476D-8874-77B26713B880}" name="Вопрос" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EB1506EF-A939-4D46-ADD3-72F334A20034}" name="Решение" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D3868C8A-C85B-4407-9362-BE39A7FE71EA}" name="Статус"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -876,7 +903,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,16 +1659,26 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="E39" s="9">
+        <v>45174</v>
+      </c>
+      <c r="F39" s="9">
+        <v>45176</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1656,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,11 +1707,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1728,11 +1765,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1769,11 +1806,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1867,11 +1904,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1956,18 +1993,60 @@
         <v>45163</v>
       </c>
     </row>
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1976,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D85C7F-3520-4488-88D2-B107F6541467}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2002,13 +2081,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>101</v>
       </c>
     </row>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BBCB4-D57A-4C19-B4F7-191A738F6E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27097BCB-4C98-445B-9A33-87771588FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
   <si>
     <t>Коллекции</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>Уведомление об измененных / неподтвержденных технологиях</t>
+  </si>
+  <si>
+    <t>Создание маршруток строго по технологии (без добавления доп. операций)</t>
+  </si>
+  <si>
+    <t>В таблицу "Модели" добавить поле "strictTechnology"</t>
+  </si>
+  <si>
+    <t>Реализовать отмену ошибочно пробитых маршруток (наклеек) по конкретному работнику в рамках определенного заказа и операции</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,6 +512,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
@@ -511,9 +523,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -521,6 +530,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -557,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H39" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:H39" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H42" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:H42" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
     <sortCondition ref="A1:A37"/>
   </sortState>
@@ -618,7 +630,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{475E910C-A0E0-489C-A4E1-67D086B9474A}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{88A67423-3000-489F-976A-DC4D835C5DE4}" name="Проблемы / пояснения"/>
-    <tableColumn id="3" xr3:uid="{7C0149BC-8127-49A2-8AF8-5CCCCA88B50A}" name="Дата" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7C0149BC-8127-49A2-8AF8-5CCCCA88B50A}" name="Дата" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,9 +640,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18899018-61C2-4AFD-AAB0-3EAB483493C5}" name="Субъект" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{27425A45-D55B-476D-8874-77B26713B880}" name="Вопрос" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EB1506EF-A939-4D46-ADD3-72F334A20034}" name="Решение" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{18899018-61C2-4AFD-AAB0-3EAB483493C5}" name="Субъект" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{27425A45-D55B-476D-8874-77B26713B880}" name="Вопрос" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EB1506EF-A939-4D46-ADD3-72F334A20034}" name="Решение" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{D3868C8A-C85B-4407-9362-BE39A7FE71EA}" name="Статус"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -900,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,16 +1383,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="E25" s="9">
+        <v>45178</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45178</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1680,6 +1702,58 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9">
+        <v>45180</v>
+      </c>
+      <c r="F40" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9">
+        <v>45195</v>
+      </c>
+      <c r="F42" s="9">
+        <v>45195</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27097BCB-4C98-445B-9A33-87771588FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC00E9C-283C-4CBC-9821-69662B6462E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
   <si>
     <t>Коллекции</t>
   </si>
@@ -361,13 +361,25 @@
     <t>Уведомление об измененных / неподтвержденных технологиях</t>
   </si>
   <si>
-    <t>Создание маршруток строго по технологии (без добавления доп. операций)</t>
-  </si>
-  <si>
-    <t>В таблицу "Модели" добавить поле "strictTechnology"</t>
-  </si>
-  <si>
     <t>Реализовать отмену ошибочно пробитых маршруток (наклеек) по конкретному работнику в рамках определенного заказа и операции</t>
+  </si>
+  <si>
+    <t>Создание маршруток строго по технологии  (без добавления доп. Операций-функция)</t>
+  </si>
+  <si>
+    <t>В таблицу "Модели" добавить поле "strictTechnology" (опция для интерфейса в технологиях)</t>
+  </si>
+  <si>
+    <t>Реализовано</t>
+  </si>
+  <si>
+    <t>В процессе</t>
+  </si>
+  <si>
+    <t>Контроль изменения технологий (ЭПИК)</t>
+  </si>
+  <si>
+    <t>Функция сравнения "актуальной" и "измененной" технологий по-операционно + выделение этих операций</t>
   </si>
 </sst>
 </file>
@@ -484,7 +496,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,11 +521,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -569,10 +584,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H42" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:H42" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
-    <sortCondition ref="A1:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:H43" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
@@ -625,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}" name="Table6" displayName="Table6" ref="A42:C45" totalsRowShown="0">
-  <autoFilter ref="A42:C45" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}" name="Table6" displayName="Table6" ref="A42:C46" totalsRowShown="0">
+  <autoFilter ref="A42:C46" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{475E910C-A0E0-489C-A4E1-67D086B9474A}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{88A67423-3000-489F-976A-DC4D835C5DE4}" name="Проблемы / пояснения"/>
@@ -912,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1724,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>50</v>
@@ -1727,19 +1742,33 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>108</v>
+      <c r="B41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9">
+        <v>45198</v>
+      </c>
+      <c r="F41" s="9">
+        <v>45198</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>109</v>
+      <c r="B42" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>50</v>
@@ -1754,6 +1783,23 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="13">
+        <v>45170</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45199</v>
       </c>
     </row>
   </sheetData>
@@ -1767,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,11 +1827,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1839,11 +1885,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1880,11 +1926,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1978,11 +2024,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2068,11 +2114,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2090,7 +2136,7 @@
         <v>104</v>
       </c>
       <c r="C43" s="1">
-        <v>45189</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,14 +2144,24 @@
         <v>105</v>
       </c>
       <c r="C44" s="1">
-        <v>45189</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45197</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2130,7 +2186,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,6 +2194,7 @@
     <col min="1" max="1" width="57.28515625" customWidth="1"/>
     <col min="2" max="2" width="88" customWidth="1"/>
     <col min="3" max="3" width="88.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,6 +2220,9 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC00E9C-283C-4CBC-9821-69662B6462E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65BE4A2-CE6C-4447-B783-54E47E8F705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Коллекции</t>
   </si>
@@ -100,24 +100,9 @@
     <t>Права доступа, пароли (ЭПИК)</t>
   </si>
   <si>
-    <t>Права доступа / пароли</t>
-  </si>
-  <si>
-    <t>Сделать таблицу прав доступа</t>
-  </si>
-  <si>
-    <t>Создать пользователей и/или группы</t>
-  </si>
-  <si>
     <t>Проблемы / пояснения</t>
   </si>
   <si>
-    <t>Пароли в хеш</t>
-  </si>
-  <si>
-    <t>Разделить права пользователей в технологиях</t>
-  </si>
-  <si>
     <t>Размерные сетки -&gt; разбить для удобства по категориям</t>
   </si>
   <si>
@@ -250,9 +235,6 @@
     <t>Модели -&gt; форма добавления новой модели</t>
   </si>
   <si>
-    <t>Сделать таблицу пользователей</t>
-  </si>
-  <si>
     <t>Модели -&gt; Артикулы -&gt; запретить повторения (Indexed- No duplicates)</t>
   </si>
   <si>
@@ -380,6 +362,45 @@
   </si>
   <si>
     <t>Функция сравнения "актуальной" и "измененной" технологий по-операционно + выделение этих операций</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>Создать таблицу пользователей</t>
+  </si>
+  <si>
+    <t>Реализовать шифрование паролей в хэш + Framework 3.5 (includes .Net 2 and .Net 3 is installed in windows)</t>
+  </si>
+  <si>
+    <t>Форма входа в систему + проверка пароля</t>
+  </si>
+  <si>
+    <t>Права доступа -&gt; связать с группами пользователей</t>
+  </si>
+  <si>
+    <t>Функиция выхода из системы (LogOut)  с обнулением прав доступа</t>
+  </si>
+  <si>
+    <t>Автообновления</t>
+  </si>
+  <si>
+    <t>Создать таблицу клиентских станций -&gt; вход станции/пользователя/текущей версии записывать в  лог + мониторить время входа/выхода</t>
+  </si>
+  <si>
+    <t>Функция проверки текущейи последней версии</t>
+  </si>
+  <si>
+    <t>Проверка режима обновления (необязательное/критическое обновление / аварийный режим)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация и проверка работы режимов; отменить / отложить обновление; </t>
+  </si>
+  <si>
+    <t>Внешний скрипт для обновления (Updater.bat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Печать и самостоятельные операции" утверждать не нужно! </t>
   </si>
 </sst>
 </file>
@@ -536,7 +557,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -545,6 +566,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -584,20 +611,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:H43" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H44" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F737FB7B-7B91-426F-832D-5168053E0AB7}" name="№"/>
     <tableColumn id="2" xr3:uid="{4AB71CD4-D3FD-4F20-8B5F-D4F46B4D7EA6}" name="Описание задания"/>
-    <tableColumn id="3" xr3:uid="{9D2E30E9-10D8-4524-86AE-72809AFD746A}" name="Статус" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{0120A919-79A7-41C5-839C-3E6AE99F464E}" name="Приоритет" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6D1BD1CC-FE6B-40C1-97EA-283CBBC82614}" name="Дата (старт)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{246F270D-BEEE-4483-A4FE-DD909F7648B3}" name="Дата выполнения" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{393F6CAB-8915-4D0E-82B3-A268F14924D2}" name="Крайний срок" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{38A3AAFB-9FEE-49FD-A26B-131F023B08D0}" name="Обратная связь" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9D2E30E9-10D8-4524-86AE-72809AFD746A}" name="Статус" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0120A919-79A7-41C5-839C-3E6AE99F464E}" name="Приоритет" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{6D1BD1CC-FE6B-40C1-97EA-283CBBC82614}" name="Дата (старт)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{246F270D-BEEE-4483-A4FE-DD909F7648B3}" name="Дата выполнения" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{393F6CAB-8915-4D0E-82B3-A268F14924D2}" name="Крайний срок" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{38A3AAFB-9FEE-49FD-A26B-131F023B08D0}" name="Обратная связь" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,20 +643,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FDBB83DB-2C93-444A-9298-AE1FD49C581B}" name="Table4" displayName="Table4" ref="A10:C14" totalsRowShown="0">
-  <autoFilter ref="A10:C14" xr:uid="{FDBB83DB-2C93-444A-9298-AE1FD49C581B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7D984A36-CA2A-4FAC-B718-98AF93F18174}" name="Описание"/>
-    <tableColumn id="2" xr3:uid="{AE03CF3D-D43D-410A-8D25-DD01AA3F4E54}" name="Проблемы / пояснения"/>
-    <tableColumn id="3" xr3:uid="{A14288C8-60B0-4930-AE1F-6E17EF926A9D}" name="Дата"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A30:C39" totalsRowShown="0">
-  <autoFilter ref="A30:C39" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}" name="Table33" displayName="Table33" ref="A23:C32" totalsRowShown="0">
+  <autoFilter ref="A23:C32" xr:uid="{F80A8344-7642-4716-BAB5-328FB9B81A1F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{645F1A8F-D5F0-483F-86BE-D00D5B8FB5E9}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{827AA575-CAE8-4425-87BF-0F177732B630}" name="Проблемы / пояснения"/>
@@ -639,19 +654,43 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}" name="Table6" displayName="Table6" ref="A42:C46" totalsRowShown="0">
-  <autoFilter ref="A42:C46" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}" name="Table6" displayName="Table6" ref="A35:C39" totalsRowShown="0">
+  <autoFilter ref="A35:C39" xr:uid="{0EDDD942-58E5-4D8B-8409-345899FCCBF1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{475E910C-A0E0-489C-A4E1-67D086B9474A}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{88A67423-3000-489F-976A-DC4D835C5DE4}" name="Проблемы / пояснения"/>
-    <tableColumn id="3" xr3:uid="{7C0149BC-8127-49A2-8AF8-5CCCCA88B50A}" name="Дата" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7C0149BC-8127-49A2-8AF8-5CCCCA88B50A}" name="Дата" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E0A0330-F2A9-4E0D-80B7-EC837FD45C17}" name="Table68" displayName="Table68" ref="A42:C48" totalsRowShown="0">
+  <autoFilter ref="A42:C48" xr:uid="{7E0A0330-F2A9-4E0D-80B7-EC837FD45C17}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2F74783D-5C43-4145-9DF8-F881F7D29D98}" name="Описание"/>
+    <tableColumn id="2" xr3:uid="{433F5D98-E5CC-4E52-AFB2-F770A91A64C4}" name="Проблемы / пояснения"/>
+    <tableColumn id="3" xr3:uid="{0C9EE686-D4D9-4E4E-9197-BE76A5DEC623}" name="Дата" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2A40CC42-A917-4FF4-86DB-833D64F2B4DE}" name="Table689" displayName="Table689" ref="A52:C57" totalsRowShown="0">
+  <autoFilter ref="A52:C57" xr:uid="{2A40CC42-A917-4FF4-86DB-833D64F2B4DE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1946451B-0360-4593-9062-F64AF18BCFD7}" name="Описание"/>
+    <tableColumn id="2" xr3:uid="{CFE8F292-0EEA-4E7B-8639-29FBCC79530B}" name="Проблемы / пояснения"/>
+    <tableColumn id="3" xr3:uid="{BC3E5303-F50D-4D0C-B9BB-46C4F77D37A0}" name="Дата" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{8DB1BD4E-E77A-4D34-8AD6-F78AC86127E8}"/>
   <tableColumns count="4">
@@ -927,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -978,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,10 +1051,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9">
         <v>45169</v>
@@ -1024,10 +1063,10 @@
         <v>45169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1055,13 +1094,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,16 +1108,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,13 +1125,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9">
         <v>45148</v>
@@ -1101,10 +1140,10 @@
         <v>45148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1112,16 +1151,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,16 +1168,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,16 +1185,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,16 +1202,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,16 +1219,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1197,16 +1236,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,16 +1253,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,16 +1270,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,16 +1287,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,16 +1304,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,16 +1321,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9">
         <v>45099</v>
@@ -1315,7 +1354,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,13 +1362,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E21" s="9">
         <v>45083</v>
@@ -1339,7 +1378,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1347,16 +1386,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,13 +1403,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,13 +1417,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E24" s="9">
         <v>45141</v>
@@ -1394,7 +1433,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1402,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25" s="9">
         <v>45178</v>
@@ -1418,7 +1457,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1426,13 +1465,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E26" s="9">
         <v>45170</v>
@@ -1442,7 +1481,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,13 +1489,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9">
         <v>45141</v>
@@ -1472,10 +1511,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9">
@@ -1492,13 +1531,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" s="9">
         <v>45148</v>
@@ -1508,7 +1547,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,13 +1555,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E30" s="9">
         <v>45148</v>
@@ -1532,7 +1571,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,10 +1579,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9">
@@ -1554,7 +1593,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,10 +1601,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="9">
@@ -1576,7 +1615,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="9">
@@ -1598,7 +1637,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,10 +1645,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="9">
@@ -1620,26 +1659,36 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
+      <c r="B35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9">
+        <v>45216</v>
+      </c>
+      <c r="F35" s="9">
+        <v>45216</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="9">
@@ -1650,7 +1699,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,10 +1707,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="9">
@@ -1678,10 +1727,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="9">
@@ -1692,7 +1741,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,13 +1749,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E39" s="9">
         <v>45174</v>
@@ -1716,7 +1765,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="9">
@@ -1738,7 +1787,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1746,10 +1795,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="9">
@@ -1760,7 +1809,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,10 +1817,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="9">
@@ -1782,7 +1831,7 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1790,16 +1839,24 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E43" s="13">
         <v>45170</v>
       </c>
       <c r="F43" s="13">
         <v>45199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1813,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1873,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,236 +1943,245 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45083</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45086</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45090</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45097</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45099</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
-        <v>45083</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
-        <v>45086</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45093</v>
-      </c>
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45097</v>
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1">
-        <v>45099</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1">
-        <v>45099</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1">
-        <v>45103</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="C28" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45149</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45148</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1">
-        <v>45141</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45148</v>
-      </c>
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45145</v>
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1">
-        <v>45149</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1">
-        <v>45148</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1">
-        <v>45154</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1">
-        <v>45163</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2125,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2133,50 +2199,122 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1">
-        <v>45182</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
-        <v>45184</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1">
-        <v>45190</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="1">
-        <v>45197</v>
-      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A51:C51"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2199,13 +2337,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2213,16 +2351,16 @@
     </row>
     <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65BE4A2-CE6C-4447-B783-54E47E8F705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F4DAB-EC39-43D8-A45B-30048F4DC60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
   <si>
     <t>Коллекции</t>
   </si>
@@ -401,6 +401,24 @@
   </si>
   <si>
     <t xml:space="preserve">"Печать и самостоятельные операции" утверждать не нужно! </t>
+  </si>
+  <si>
+    <t>Обзор выполнения заказов -&gt; не отображать "завершенные"</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Ввод кол-ва и размеров заказа -&gt; сделать автономную таблицу</t>
+  </si>
+  <si>
+    <t>5-я рамзерная сетка (перемешивается с размерами из 1-ой)</t>
+  </si>
+  <si>
+    <t>Учет выполненной работы подготовительных операций в зарплате  [что бы учитывать подготовительные операции, нужно эти операции отобразить в таблице маршруток (создать маршрутки для этих операций), либо в корне изменить принцип учета проделанной работы]</t>
+  </si>
+  <si>
+    <t>Лог изменения технологии</t>
   </si>
 </sst>
 </file>
@@ -517,7 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -550,6 +568,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -611,8 +641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H44" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H49" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -966,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1817,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,7 +1839,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,11 +1882,115 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
         <v>120</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9">
+        <v>45217</v>
+      </c>
+      <c r="F44" s="9">
+        <v>45217</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9">
+        <v>45218</v>
+      </c>
+      <c r="F45" s="9">
+        <v>45218</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9">
+        <v>45219</v>
+      </c>
+      <c r="F46" s="9">
+        <v>45219</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9">
+        <v>45219</v>
+      </c>
+      <c r="F47" s="9">
+        <v>45222</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18">
+        <v>45222</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45223</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1872,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2367,9 @@
       <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>45222</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F4DAB-EC39-43D8-A45B-30048F4DC60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B6CF4-204F-4FFB-890A-63AF1C824E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="128">
   <si>
     <t>Коллекции</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Архив -&gt; создать таблицу</t>
   </si>
   <si>
-    <t>Архив -&gt; автоматическая архивация заказов, старше 4 месяцев</t>
-  </si>
-  <si>
     <t>Архив -&gt; в архив попадает обобщенная инфа (группировка по работникам)</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>Реализовано</t>
   </si>
   <si>
-    <t>В процессе</t>
-  </si>
-  <si>
     <t>Контроль изменения технологий (ЭПИК)</t>
   </si>
   <si>
@@ -419,6 +413,15 @@
   </si>
   <si>
     <t>Лог изменения технологии</t>
+  </si>
+  <si>
+    <t>Исправлена ошибка с наклейками в заказах, где нет отдельных операций (не создавалась маршрутка для наклеек)</t>
+  </si>
+  <si>
+    <t>OnHold</t>
+  </si>
+  <si>
+    <t>Архив -&gt;  архивация заказов, старше 4 месяцев</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,12 +566,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +577,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -641,8 +641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H49" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H50" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -709,8 +709,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2A40CC42-A917-4FF4-86DB-833D64F2B4DE}" name="Table689" displayName="Table689" ref="A52:C57" totalsRowShown="0">
-  <autoFilter ref="A52:C57" xr:uid="{2A40CC42-A917-4FF4-86DB-833D64F2B4DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2A40CC42-A917-4FF4-86DB-833D64F2B4DE}" name="Table689" displayName="Table689" ref="A52:C56" totalsRowShown="0">
+  <autoFilter ref="A52:C56" xr:uid="{2A40CC42-A917-4FF4-86DB-833D64F2B4DE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1946451B-0360-4593-9062-F64AF18BCFD7}" name="Описание"/>
     <tableColumn id="2" xr3:uid="{CFE8F292-0EEA-4E7B-8639-29FBCC79530B}" name="Проблемы / пояснения"/>
@@ -996,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -1047,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9">
         <v>45169</v>
@@ -1093,10 +1093,10 @@
         <v>45169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1124,13 +1124,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,13 +1141,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9">
         <v>45148</v>
@@ -1170,61 +1170,88 @@
         <v>45148</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="9">
+        <v>45238</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45238</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E10" s="9">
+        <v>45243</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45247</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
+      <c r="E11" s="9">
+        <v>45243</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45247</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,16 +1259,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,33 +1276,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="E14" s="9">
+        <v>45200</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45211</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,16 +1319,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,16 +1336,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1317,16 +1353,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,16 +1370,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,16 +1387,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E20" s="9">
         <v>45099</v>
@@ -1384,7 +1420,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,13 +1428,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E21" s="9">
         <v>45083</v>
@@ -1408,7 +1444,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1416,16 +1452,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,13 +1469,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,13 +1483,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="9">
         <v>45141</v>
@@ -1463,7 +1499,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="9">
         <v>45178</v>
@@ -1487,7 +1523,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,13 +1531,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="9">
         <v>45170</v>
@@ -1511,7 +1547,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1519,13 +1555,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="E27" s="9">
         <v>45141</v>
@@ -1541,10 +1577,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9">
@@ -1561,13 +1597,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E29" s="9">
         <v>45148</v>
@@ -1577,7 +1613,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1585,13 +1621,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E30" s="9">
         <v>45148</v>
@@ -1601,7 +1637,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9">
@@ -1623,7 +1659,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,10 +1667,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="9">
@@ -1645,7 +1681,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,10 +1689,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="9">
@@ -1667,7 +1703,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,10 +1711,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="9">
@@ -1689,7 +1725,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,7 +1733,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1715,10 +1751,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="9">
@@ -1729,7 +1765,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1737,10 +1773,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="9">
@@ -1757,10 +1793,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="9">
@@ -1771,7 +1807,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,13 +1815,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E39" s="9">
         <v>45174</v>
@@ -1795,7 +1831,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1803,10 +1839,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="9">
@@ -1817,7 +1853,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1825,10 +1861,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="9">
@@ -1839,7 +1875,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,10 +1883,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="9">
@@ -1861,34 +1897,39 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="B43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9">
         <v>45170</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="9">
         <v>45199</v>
       </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="9">
         <v>45217</v>
@@ -1898,7 +1939,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1906,9 +1947,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D45" s="7"/>
       <c r="E45" s="9">
         <v>45218</v>
@@ -1918,7 +1961,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1926,9 +1969,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="9">
         <v>45219</v>
@@ -1938,7 +1983,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1946,9 +1991,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9">
         <v>45219</v>
@@ -1958,39 +2005,71 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16">
+        <v>45222</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9">
+        <v>45232</v>
+      </c>
+      <c r="F49" s="9">
+        <v>45236</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18">
-        <v>45222</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="13">
-        <v>45223</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>122</v>
+      <c r="C50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9">
+        <v>45232</v>
+      </c>
+      <c r="F50" s="9">
+        <v>45233</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2004,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C56" sqref="A41:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,11 +2097,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2064,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,11 +2155,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2095,7 +2174,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>45083</v>
@@ -2103,7 +2182,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>45086</v>
@@ -2111,7 +2190,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>45090</v>
@@ -2119,7 +2198,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1">
         <v>45092</v>
@@ -2127,7 +2206,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>45093</v>
@@ -2135,7 +2214,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>45097</v>
@@ -2143,7 +2222,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1">
         <v>45099</v>
@@ -2151,7 +2230,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1">
         <v>45099</v>
@@ -2159,7 +2238,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
         <v>45103</v>
@@ -2167,18 +2246,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>45106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2193,7 +2272,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1">
         <v>45141</v>
@@ -2201,7 +2280,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
         <v>45142</v>
@@ -2209,7 +2288,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1">
         <v>45145</v>
@@ -2217,7 +2296,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1">
         <v>45148</v>
@@ -2225,7 +2304,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1">
         <v>45145</v>
@@ -2233,7 +2312,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1">
         <v>45149</v>
@@ -2241,7 +2320,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1">
         <v>45148</v>
@@ -2249,7 +2328,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1">
         <v>45154</v>
@@ -2257,18 +2336,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1">
         <v>45163</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2283,7 +2362,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1">
         <v>45182</v>
@@ -2291,7 +2370,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1">
         <v>45184</v>
@@ -2299,7 +2378,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1">
         <v>45190</v>
@@ -2307,18 +2386,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1">
         <v>45197</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2333,7 +2412,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1">
         <v>45201</v>
@@ -2341,7 +2420,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1">
         <v>45202</v>
@@ -2349,7 +2428,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1">
         <v>45203</v>
@@ -2357,7 +2436,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1">
         <v>45204</v>
@@ -2365,7 +2444,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" s="1">
         <v>45222</v>
@@ -2373,7 +2452,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1">
         <v>45205</v>
@@ -2383,11 +2462,11 @@
       <c r="C49" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2402,7 +2481,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1">
         <v>45208</v>
@@ -2410,7 +2489,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1">
         <v>45209</v>
@@ -2418,7 +2497,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="1">
         <v>45210</v>
@@ -2426,14 +2505,11 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1">
         <v>45211</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2473,13 +2549,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2487,16 +2563,16 @@
     </row>
     <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B6CF4-204F-4FFB-890A-63AF1C824E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555BE070-6937-4392-9316-CB827757622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
   <si>
     <t>Коллекции</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Права доступа, пароли (ЭПИК)</t>
-  </si>
-  <si>
     <t>Проблемы / пояснения</t>
   </si>
   <si>
@@ -418,10 +415,16 @@
     <t>Исправлена ошибка с наклейками в заказах, где нет отдельных операций (не создавалась маршрутка для наклеек)</t>
   </si>
   <si>
-    <t>OnHold</t>
-  </si>
-  <si>
     <t>Архив -&gt;  архивация заказов, старше 4 месяцев</t>
+  </si>
+  <si>
+    <t>Возможность автоматического создания дополнительных микро-контрактов для определенных операций для определенных размеров (этот параметр устанавливается в технологии)</t>
+  </si>
+  <si>
+    <t>Права доступа, пароли (ЭПИКс- БЕЗОПАСНОСТЬ)</t>
+  </si>
+  <si>
+    <t>Под вопросом</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -580,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -641,8 +647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H50" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H51" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -996,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -1047,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="9">
         <v>45169</v>
@@ -1093,10 +1099,10 @@
         <v>45169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,16 +1127,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,16 +1144,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,13 +1161,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9">
         <v>45148</v>
@@ -1170,10 +1176,10 @@
         <v>45148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9">
         <v>45238</v>
@@ -1196,10 +1202,10 @@
         <v>45238</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1207,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="9">
         <v>45243</v>
@@ -1222,10 +1228,10 @@
         <v>45247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1233,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9">
         <v>45243</v>
@@ -1248,10 +1254,10 @@
         <v>45247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,16 +1265,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1276,16 +1282,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1293,13 +1299,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="9">
         <v>45200</v>
@@ -1308,10 +1314,10 @@
         <v>45211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,16 +1325,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,16 +1342,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1353,16 +1359,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,16 +1376,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,16 +1393,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E20" s="9">
         <v>45099</v>
@@ -1420,7 +1426,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,13 +1434,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="9">
         <v>45083</v>
@@ -1444,7 +1450,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,16 +1458,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,13 +1475,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,13 +1489,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E24" s="9">
         <v>45141</v>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="9">
         <v>45178</v>
@@ -1523,7 +1529,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,13 +1537,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="9">
         <v>45170</v>
@@ -1547,7 +1553,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,13 +1561,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E27" s="9">
         <v>45141</v>
@@ -1577,10 +1583,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9">
@@ -1597,13 +1603,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E29" s="9">
         <v>45148</v>
@@ -1613,7 +1619,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,13 +1627,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E30" s="9">
         <v>45148</v>
@@ -1637,7 +1643,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9">
@@ -1659,7 +1665,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,10 +1673,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="9">
@@ -1681,7 +1687,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1689,10 +1695,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="9">
@@ -1703,7 +1709,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,10 +1717,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="9">
@@ -1725,7 +1731,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1733,7 +1739,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1751,10 +1757,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="9">
@@ -1765,7 +1771,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,10 +1779,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="9">
@@ -1793,10 +1799,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="9">
@@ -1807,7 +1813,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,13 +1821,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E39" s="9">
         <v>45174</v>
@@ -1831,7 +1837,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,10 +1845,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="9">
@@ -1853,7 +1859,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1861,10 +1867,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="9">
@@ -1875,7 +1881,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,10 +1889,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="9">
@@ -1897,7 +1903,7 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1905,10 +1911,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="9">
@@ -1925,10 +1931,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="9">
@@ -1939,7 +1945,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1947,10 +1953,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="9">
@@ -1961,7 +1967,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,10 +1975,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="9">
@@ -1983,7 +1989,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,10 +1997,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9">
@@ -2005,7 +2011,7 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,10 +2019,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="16">
@@ -2025,7 +2031,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,10 +2039,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="9">
@@ -2047,7 +2053,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,10 +2061,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="9">
@@ -2069,7 +2075,18 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2103,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C56" sqref="A41:C56"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2143,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,7 +2173,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -2166,7 +2183,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>18</v>
@@ -2174,7 +2191,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
         <v>45083</v>
@@ -2182,7 +2199,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>45086</v>
@@ -2190,7 +2207,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>45090</v>
@@ -2198,7 +2215,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1">
         <v>45092</v>
@@ -2206,7 +2223,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>45093</v>
@@ -2214,7 +2231,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>45097</v>
@@ -2222,7 +2239,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>45099</v>
@@ -2230,7 +2247,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>45099</v>
@@ -2238,7 +2255,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>45103</v>
@@ -2246,7 +2263,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1">
         <v>45106</v>
@@ -2254,7 +2271,7 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2264,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2272,7 +2289,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
         <v>45141</v>
@@ -2280,7 +2297,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1">
         <v>45142</v>
@@ -2288,7 +2305,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1">
         <v>45145</v>
@@ -2296,7 +2313,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
         <v>45148</v>
@@ -2304,7 +2321,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1">
         <v>45145</v>
@@ -2312,7 +2329,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1">
         <v>45149</v>
@@ -2320,7 +2337,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1">
         <v>45148</v>
@@ -2328,7 +2345,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1">
         <v>45154</v>
@@ -2336,7 +2353,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
         <v>45163</v>
@@ -2344,7 +2361,7 @@
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2354,7 +2371,7 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -2362,7 +2379,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1">
         <v>45182</v>
@@ -2370,7 +2387,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1">
         <v>45184</v>
@@ -2378,7 +2395,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1">
         <v>45190</v>
@@ -2386,7 +2403,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1">
         <v>45197</v>
@@ -2394,7 +2411,7 @@
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -2404,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2412,7 +2429,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="1">
         <v>45201</v>
@@ -2420,7 +2437,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1">
         <v>45202</v>
@@ -2428,7 +2445,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1">
         <v>45203</v>
@@ -2436,7 +2453,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1">
         <v>45204</v>
@@ -2444,7 +2461,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1">
         <v>45222</v>
@@ -2452,7 +2469,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1">
         <v>45205</v>
@@ -2463,7 +2480,7 @@
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -2473,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2481,7 +2498,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1">
         <v>45208</v>
@@ -2489,7 +2506,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="1">
         <v>45209</v>
@@ -2497,7 +2514,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1">
         <v>45210</v>
@@ -2505,7 +2522,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="1">
         <v>45211</v>
@@ -2549,13 +2566,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2563,16 +2580,16 @@
     </row>
     <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555BE070-6937-4392-9316-CB827757622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A299C-1D26-4BDD-A324-A68E587B513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
   <si>
     <t>Коллекции</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Размерные сетки -&gt; разбить для удобства по категориям</t>
   </si>
   <si>
-    <t>Архив -&gt; создать таблицу</t>
-  </si>
-  <si>
-    <t>Архив -&gt; в архив попадает обобщенная инфа (группировка по работникам)</t>
-  </si>
-  <si>
     <t>Мин./макс стежки и мм -&gt; в одну строку с разделителем ("-")</t>
   </si>
   <si>
@@ -409,15 +403,9 @@
     <t>Учет выполненной работы подготовительных операций в зарплате  [что бы учитывать подготовительные операции, нужно эти операции отобразить в таблице маршруток (создать маршрутки для этих операций), либо в корне изменить принцип учета проделанной работы]</t>
   </si>
   <si>
-    <t>Лог изменения технологии</t>
-  </si>
-  <si>
     <t>Исправлена ошибка с наклейками в заказах, где нет отдельных операций (не создавалась маршрутка для наклеек)</t>
   </si>
   <si>
-    <t>Архив -&gt;  архивация заказов, старше 4 месяцев</t>
-  </si>
-  <si>
     <t>Возможность автоматического создания дополнительных микро-контрактов для определенных операций для определенных размеров (этот параметр устанавливается в технологии)</t>
   </si>
   <si>
@@ -425,6 +413,27 @@
   </si>
   <si>
     <t>Под вопросом</t>
+  </si>
+  <si>
+    <t>Сохранять дату последней распечатки маршруток (дата создания маршруток)</t>
+  </si>
+  <si>
+    <t>Архив -&gt; создать структуру таблицы и запросов</t>
+  </si>
+  <si>
+    <t>Архив -&gt;  архивация заказов, старше 4 месяцев (пока в ручном режиме - по нажатию кнопки)</t>
+  </si>
+  <si>
+    <t>Изменения в технологиях</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Архив -&gt; в архив попадает обобщенная информация о проделанной работе каждого работника, сгруппированая по дням/заказам/отдельной операции, суммируя общее кол-во прошитых изделий (за день и по определенной операции). Ненужные данные (размеры изделий,номера коробок, ID маршрутки) - усекаются, т.к малозначимы для статистических данных.</t>
+  </si>
+  <si>
+    <t>Лог изменения технологии (кто и когда менял определенную операцию)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -581,11 +590,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -647,8 +668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H51" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H52" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H52" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1002,16 +1023,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="96.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
     <col min="5" max="6" width="18.5703125" style="3" customWidth="1"/>
@@ -1033,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -1053,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1070,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,10 +1108,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9">
         <v>45169</v>
@@ -1099,10 +1120,10 @@
         <v>45169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1113,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1127,16 +1148,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,13 +1168,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,13 +1182,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9">
         <v>45148</v>
@@ -1176,10 +1197,10 @@
         <v>45148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9">
         <v>45238</v>
@@ -1201,11 +1222,9 @@
       <c r="F9" s="9">
         <v>45238</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1213,51 +1232,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9">
         <v>45243</v>
       </c>
       <c r="F10" s="9">
-        <v>45247</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>45252</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="B11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="20">
         <v>45243</v>
       </c>
-      <c r="F11" s="9">
-        <v>45247</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>46</v>
+      <c r="F11" s="20">
+        <v>45252</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,16 +1280,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,16 +1297,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,13 +1314,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="9">
         <v>45200</v>
@@ -1314,10 +1329,10 @@
         <v>45211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,16 +1340,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,16 +1357,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1359,16 +1374,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1376,16 +1391,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,16 +1408,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,13 +1425,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="9">
         <v>45099</v>
@@ -1426,7 +1441,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1434,13 +1449,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E21" s="9">
         <v>45083</v>
@@ -1450,7 +1465,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,16 +1473,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,13 +1490,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1489,13 +1504,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="9">
         <v>45141</v>
@@ -1505,7 +1520,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="9">
         <v>45178</v>
@@ -1529,7 +1544,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,13 +1552,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="9">
         <v>45170</v>
@@ -1553,7 +1568,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,13 +1576,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="9">
         <v>45141</v>
@@ -1583,10 +1598,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9">
@@ -1603,13 +1618,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="9">
         <v>45148</v>
@@ -1619,7 +1634,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,13 +1642,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="9">
         <v>45148</v>
@@ -1643,7 +1658,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9">
@@ -1665,7 +1680,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,10 +1688,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="9">
@@ -1687,7 +1702,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1695,10 +1710,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="9">
@@ -1709,7 +1724,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1717,10 +1732,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="9">
@@ -1731,7 +1746,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1739,7 +1754,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1757,10 +1772,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="9">
@@ -1771,7 +1786,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,10 +1794,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="9">
@@ -1799,10 +1814,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="9">
@@ -1813,7 +1828,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,13 +1836,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="9">
         <v>45174</v>
@@ -1837,7 +1852,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1845,10 +1860,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="9">
@@ -1859,7 +1874,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1867,10 +1882,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="9">
@@ -1881,7 +1896,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,10 +1904,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="9">
@@ -1903,7 +1918,7 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,10 +1926,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="9">
@@ -1931,10 +1946,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="9">
@@ -1945,7 +1960,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,10 +1968,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="9">
@@ -1967,7 +1982,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1975,10 +1990,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="9">
@@ -1989,7 +2004,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,10 +2012,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9">
@@ -2011,7 +2026,7 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2019,10 +2034,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="16">
@@ -2031,7 +2046,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,10 +2054,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="9">
@@ -2053,7 +2068,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,32 +2076,67 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="9">
-        <v>45232</v>
+        <v>45254</v>
       </c>
       <c r="F50" s="9">
-        <v>45233</v>
+        <v>45254</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="B51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9">
+        <v>45266</v>
+      </c>
+      <c r="F52" s="9">
+        <v>45266</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -2114,11 +2164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2160,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,11 +2222,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2191,7 +2241,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>45083</v>
@@ -2199,7 +2249,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>45086</v>
@@ -2207,7 +2257,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>45090</v>
@@ -2215,7 +2265,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>45092</v>
@@ -2223,7 +2273,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>45093</v>
@@ -2231,7 +2281,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>45097</v>
@@ -2239,7 +2289,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>45099</v>
@@ -2247,7 +2297,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>45099</v>
@@ -2255,7 +2305,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>45103</v>
@@ -2263,18 +2313,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1">
         <v>45106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2289,7 +2339,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1">
         <v>45141</v>
@@ -2297,7 +2347,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1">
         <v>45142</v>
@@ -2305,7 +2355,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>45145</v>
@@ -2313,7 +2363,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>45148</v>
@@ -2321,7 +2371,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1">
         <v>45145</v>
@@ -2329,7 +2379,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
         <v>45149</v>
@@ -2337,7 +2387,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1">
         <v>45148</v>
@@ -2345,7 +2395,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
         <v>45154</v>
@@ -2353,18 +2403,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
         <v>45163</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2379,7 +2429,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1">
         <v>45182</v>
@@ -2387,7 +2437,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1">
         <v>45184</v>
@@ -2395,7 +2445,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1">
         <v>45190</v>
@@ -2403,18 +2453,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1">
         <v>45197</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2429,7 +2479,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1">
         <v>45201</v>
@@ -2437,7 +2487,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1">
         <v>45202</v>
@@ -2445,7 +2495,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1">
         <v>45203</v>
@@ -2453,7 +2503,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1">
         <v>45204</v>
@@ -2461,7 +2511,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1">
         <v>45222</v>
@@ -2469,7 +2519,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1">
         <v>45205</v>
@@ -2479,11 +2529,11 @@
       <c r="C49" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2498,7 +2548,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1">
         <v>45208</v>
@@ -2506,7 +2556,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1">
         <v>45209</v>
@@ -2514,7 +2564,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1">
         <v>45210</v>
@@ -2522,7 +2572,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1">
         <v>45211</v>
@@ -2566,13 +2616,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2580,16 +2630,16 @@
     </row>
     <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A299C-1D26-4BDD-A324-A68E587B513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAFD4F-54CB-4E5D-A58D-60BE45255784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
   <si>
     <t>Коллекции</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Исправлена ошибка с наклейками в заказах, где нет отдельных операций (не создавалась маршрутка для наклеек)</t>
   </si>
   <si>
-    <t>Возможность автоматического создания дополнительных микро-контрактов для определенных операций для определенных размеров (этот параметр устанавливается в технологии)</t>
-  </si>
-  <si>
     <t>Права доступа, пароли (ЭПИКс- БЕЗОПАСНОСТЬ)</t>
   </si>
   <si>
@@ -424,16 +421,46 @@
     <t>Архив -&gt;  архивация заказов, старше 4 месяцев (пока в ручном режиме - по нажатию кнопки)</t>
   </si>
   <si>
-    <t>Изменения в технологиях</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Архив -&gt; в архив попадает обобщенная информация о проделанной работе каждого работника, сгруппированая по дням/заказам/отдельной операции, суммируя общее кол-во прошитых изделий (за день и по определенной операции). Ненужные данные (размеры изделий,номера коробок, ID маршрутки) - усекаются, т.к малозначимы для статистических данных.</t>
   </si>
   <si>
     <t>Лог изменения технологии (кто и когда менял определенную операцию)</t>
+  </si>
+  <si>
+    <t>Карточки клиентов</t>
+  </si>
+  <si>
+    <t>Коллекционные/обычные  технологии -&gt; Автоподстановка тарифов  в соответствии с выбранным оборудованием</t>
+  </si>
+  <si>
+    <t>Оборудование -&gt; Тарифы по умолчанию + оборудование для коллекционных технологий</t>
+  </si>
+  <si>
+    <t>Таблица стежков для определенного оборудования</t>
+  </si>
+  <si>
+    <t>Коллекционные/обычные  технологии -&gt; Автоподстановка ширины стежков в соответствии с выбранным оборудованием + фильтрация ширины стежков для удобства ввода в технологию</t>
+  </si>
+  <si>
+    <t>Технологии -&gt; разделение обычных  и коллекционных технологий (это необходимо для фильтрации операций во избежании их перемешивания и нарушения протокола заполнения коллекционных технологий)</t>
+  </si>
+  <si>
+    <t>Выделение дополнительных (условных) операций в форме и распечатке</t>
+  </si>
+  <si>
+    <t>Дополнительная инфа по технологии (для конкретной конфигурации)</t>
+  </si>
+  <si>
+    <t>Связь и идентификация размеров при создании дополнительных операций для условных операций (влияние разновидностей размерных сеток!) =&gt; скорее всего придется проводить SizeID через все таблицы (OrderSizeChart,BoxesReleased… до Jobs)</t>
+  </si>
+  <si>
+    <t>Прорабoтать подтверждение изменения технологии при наличии условных операций (ОЧЕНЬ ВАЖНО!) =&gt; как вариант - не копировать измененную конфигурацию(2),вставляя ее в таблицу, а просто перенумеровать измененный конфиг 2 в оригинальный (1-ый).</t>
+  </si>
+  <si>
+    <t>Регистрация нового заказа в момент, когда еще нет технологии -&gt; глючат дополнительные операции -&gt; исправлено, путем проверки на наличие технологии</t>
+  </si>
+  <si>
+    <t>Возможность автоматического создания дополнительных микро-контрактов (условные операции) для определенных операций по определенным размерам (этот параметр устанавливается в технологии)</t>
   </si>
 </sst>
 </file>
@@ -602,7 +629,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -668,8 +695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H52" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H52" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H63" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H63" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1023,16 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
     <col min="5" max="6" width="18.5703125" style="3" customWidth="1"/>
@@ -1148,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -1208,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>41</v>
@@ -1232,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>41</v>
@@ -1256,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>41</v>
@@ -2037,7 +2064,7 @@
         <v>120</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="16">
@@ -2054,7 +2081,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>41</v>
@@ -2094,18 +2121,24 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15" t="s">
+      <c r="B51" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20">
+        <v>45271</v>
+      </c>
+      <c r="F51" s="20">
+        <v>45306</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2114,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>41</v>
@@ -2131,12 +2164,234 @@
         <v>43</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="21">
+        <v>45281</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9">
+        <v>45299</v>
+      </c>
+      <c r="F54" s="9">
+        <v>45300</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>128</v>
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9">
+        <v>45299</v>
+      </c>
+      <c r="F55" s="9">
+        <v>45301</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9">
+        <v>45299</v>
+      </c>
+      <c r="F56" s="9">
+        <v>45301</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9">
+        <v>45299</v>
+      </c>
+      <c r="F57" s="9">
+        <v>45301</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9">
+        <v>45299</v>
+      </c>
+      <c r="F58" s="9">
+        <v>45302</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9">
+        <v>45301</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9">
+        <v>45301</v>
+      </c>
+      <c r="F60" s="9">
+        <v>45307</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9">
+        <v>45303</v>
+      </c>
+      <c r="F61" s="9">
+        <v>45306</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9">
+        <v>45303</v>
+      </c>
+      <c r="F62" s="9">
+        <v>45308</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9">
+        <v>45306</v>
+      </c>
+      <c r="F63" s="9">
+        <v>45307</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAFD4F-54CB-4E5D-A58D-60BE45255784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D7EA6-8442-4CC6-9AA5-2571CC3CDF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="142">
   <si>
     <t>Коллекции</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Возможность автоматического создания дополнительных микро-контрактов (условные операции) для определенных операций по определенным размерам (этот параметр устанавливается в технологии)</t>
+  </si>
+  <si>
+    <t>"Сводка выработки по заказам" -&gt; добавить выработку в минутах + итоговую выработку в минутах</t>
   </si>
 </sst>
 </file>
@@ -695,8 +698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H63" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H63" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H64" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H64" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1050,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,19 +1097,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="9">
+        <v>45281</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1320,19 +1330,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>45279</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2300,7 +2317,9 @@
       <c r="E59" s="9">
         <v>45301</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="9">
+        <v>45303</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
         <v>49</v>
@@ -2392,6 +2411,28 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="9">
+        <v>45323</v>
+      </c>
+      <c r="F64" s="9">
+        <v>45323</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D7EA6-8442-4CC6-9AA5-2571CC3CDF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900685D7-F7BC-4BD0-834F-14CC4C64635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="145">
   <si>
     <t>Коллекции</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>"Сводка выработки по заказам" -&gt; добавить выработку в минутах + итоговую выработку в минутах</t>
+  </si>
+  <si>
+    <t>Модель 281 -&gt; разобраться с "условными операциями", т.к они не появляются в маршрутках. А они там не появляются, т.к. во время регистрации заказа программа не привязывала размер с его ID из нативной таблицы. Причина - проблема из пункта №61</t>
+  </si>
+  <si>
+    <t>"Обзор активных заказов" -&gt; добавить колонку актуального кол-ва изделий на ОТК =&gt; нужно распознать номер операции, к которой относится "ОТК" или "Контроль изделий" (сравнением названия типа операции). Обеспечить строгий и однозначный ввод операции "ОТК" в технологию, иначе она не распознаетсяс в активных заказах!</t>
+  </si>
+  <si>
+    <t>"Обзор активных заказов" -&gt;  возможность фильтрации по периодам</t>
   </si>
 </sst>
 </file>
@@ -698,8 +707,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H64" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H64" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H67" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1053,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,6 +2441,72 @@
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9">
+        <v>45329</v>
+      </c>
+      <c r="F65" s="9">
+        <v>45329</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="9">
+        <v>45329</v>
+      </c>
+      <c r="F66" s="9">
+        <v>45329</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="9">
+        <v>45331</v>
+      </c>
+      <c r="F67" s="9">
+        <v>45331</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900685D7-F7BC-4BD0-834F-14CC4C64635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FAA51-CD0B-43EE-8463-13003ADEA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="156">
   <si>
     <t>Коллекции</t>
   </si>
@@ -473,6 +473,39 @@
   </si>
   <si>
     <t>"Обзор активных заказов" -&gt;  возможность фильтрации по периодам</t>
+  </si>
+  <si>
+    <t>Найдена и исправлена ситуация, при которой не закрывался набор данных при сканировании наклеек</t>
+  </si>
+  <si>
+    <t>Обзор активных заказов -&gt; отчет по выпущенным заказам -&gt; выборка должна производиться по закрытым ОТК =&gt; в ордерах введены новые параметры: "ОТК завершен" и "последняя дата ОТК"</t>
+  </si>
+  <si>
+    <t>Запилил тригер (при сканировании ОТК-операции) на изменение статуса "Завершен на ОТК" и "Последняя дата ОТК"</t>
+  </si>
+  <si>
+    <t>"Обзор заказов" -&gt; убрать описание</t>
+  </si>
+  <si>
+    <t>"Обзор заказов" -&gt; отображать тип изделия одной буквой (сделал 2-мя, иначе не различить бюсты от боди)</t>
+  </si>
+  <si>
+    <t>"Обзор заказов" -&gt; убрать "Маршрутки" и "Заказ выпущен"</t>
+  </si>
+  <si>
+    <t>"Обзор активных заказов" -&gt;  Печатня форма + Excel по запущенным заказам за последний месяц</t>
+  </si>
+  <si>
+    <t>"Обзор активных заказов" -&gt; PDF/Excel для выпущенных заказов за последний месяц</t>
+  </si>
+  <si>
+    <t>"Orders" -&gt; o Archived - удалить?</t>
+  </si>
+  <si>
+    <t>"Orders" -&gt; добавить "Кол-во ОТК"</t>
+  </si>
+  <si>
+    <t>Сводка по работникам</t>
   </si>
 </sst>
 </file>
@@ -707,8 +740,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H67" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H78" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}">
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2024" month="2" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1062,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1129,7 +1168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1146,7 +1185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1172,7 +1211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1189,7 +1228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1206,7 +1245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1223,7 +1262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1249,7 +1288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1273,7 +1312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1297,7 +1336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1321,7 +1360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1338,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1362,7 +1401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1388,7 +1427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1405,7 +1444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1422,7 +1461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1439,7 +1478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1456,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1473,7 +1512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1497,7 +1536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1521,7 +1560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1538,7 +1577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1552,7 +1591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1576,7 +1615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1600,7 +1639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1624,7 +1663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1646,7 +1685,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1666,7 +1705,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1690,7 +1729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1714,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1736,7 +1775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1758,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1780,7 +1819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1802,7 +1841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1820,7 +1859,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1842,7 +1881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1862,7 +1901,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1884,7 +1923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1908,7 +1947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -1930,7 +1969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -1952,7 +1991,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -1974,7 +2013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -1994,7 +2033,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2016,7 +2055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2038,7 +2077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -2060,7 +2099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2082,7 +2121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2102,7 +2141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2124,7 +2163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -2146,7 +2185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -2168,7 +2207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -2190,7 +2229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2204,7 +2243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -2226,7 +2265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2248,7 +2287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -2270,7 +2309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2292,7 +2331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -2314,7 +2353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2334,7 +2373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -2356,7 +2395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2378,7 +2417,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2400,7 +2439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2508,6 +2547,209 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="9">
+        <v>45331</v>
+      </c>
+      <c r="F68" s="9">
+        <v>45334</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="9">
+        <v>45334</v>
+      </c>
+      <c r="F69" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="9">
+        <v>45335</v>
+      </c>
+      <c r="F70" s="9">
+        <v>45336</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="9">
+        <v>45336</v>
+      </c>
+      <c r="F71" s="9">
+        <v>45336</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9">
+        <v>45337</v>
+      </c>
+      <c r="F72" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="9">
+        <v>45337</v>
+      </c>
+      <c r="F73" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="9">
+        <v>45337</v>
+      </c>
+      <c r="F74" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="9">
+        <v>45337</v>
+      </c>
+      <c r="F75" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FAA51-CD0B-43EE-8463-13003ADEA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E93D85-A8D5-4FF6-89EA-24B1CA523262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="162">
   <si>
     <t>Коллекции</t>
   </si>
@@ -505,7 +505,25 @@
     <t>"Orders" -&gt; добавить "Кол-во ОТК"</t>
   </si>
   <si>
-    <t>Сводка по работникам</t>
+    <t>Удаление операции в технологии считать за изменение и включать в  список измененных технологий.</t>
+  </si>
+  <si>
+    <t>Сводка завершенных работ определенному работнику по датам (за определенный период)</t>
+  </si>
+  <si>
+    <t>В процессе</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Общий лог изменения технологии (Сводная трудозатрат)</t>
+  </si>
+  <si>
+    <t>"Новый заказ" -&gt; возможность регистрации заказа без размеров + обзор заказов без размеров</t>
+  </si>
+  <si>
+    <t>"Обзор заказов" -&gt; включить в него заказыбез размеров (форматнуть в светлый цвет)</t>
   </si>
 </sst>
 </file>
@@ -740,8 +758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H78" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H82" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H82" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2024" month="2" dateTimeGrouping="month"/>
@@ -1101,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2513,7 @@
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="9">
-        <v>45329</v>
+        <v>45327</v>
       </c>
       <c r="F65" s="9">
         <v>45329</v>
@@ -2725,31 +2743,118 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>154</v>
       </c>
+      <c r="C77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="9">
+        <v>45349</v>
+      </c>
+      <c r="F78" s="9">
+        <v>45350</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="9">
+        <v>45344</v>
+      </c>
+      <c r="F79" s="9">
+        <v>45348</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>155</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>43</v>
+      <c r="C80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E93D85-A8D5-4FF6-89EA-24B1CA523262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9639D5-C4B5-405E-ACCE-83AB9338440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
     <t>"Новый заказ" -&gt; возможность регистрации заказа без размеров + обзор заказов без размеров</t>
   </si>
   <si>
-    <t>"Обзор заказов" -&gt; включить в него заказыбез размеров (форматнуть в светлый цвет)</t>
+    <t>"Обзор заказов" -&gt; включить в него заказы без размеров (форматнуть в светлый цвет)</t>
   </si>
 </sst>
 </file>
@@ -759,13 +759,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H82" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H82" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2024" month="2" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H82" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1121,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1229,7 +1223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1263,7 +1257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1280,7 +1274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1306,7 +1300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1330,7 +1324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1354,7 +1348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1395,7 +1389,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1419,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1445,7 +1439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1479,7 +1473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1496,7 +1490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1513,7 +1507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1530,7 +1524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1554,7 +1548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1578,7 +1572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1595,7 +1589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1633,7 +1627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1657,7 +1651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1681,7 +1675,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1703,7 +1697,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1723,7 +1717,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1771,7 +1765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1793,7 +1787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1815,7 +1809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1837,7 +1831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1877,7 +1871,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1919,7 +1913,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1941,7 +1935,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1965,7 +1959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2031,7 +2025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2051,7 +2045,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2073,7 +2067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2095,7 +2089,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -2117,7 +2111,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2159,7 +2153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2181,7 +2175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -2203,7 +2197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -2225,7 +2219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -2247,7 +2241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2261,7 +2255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -2283,7 +2277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -2327,7 +2321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2349,7 +2343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -2413,7 +2407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2435,7 +2429,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2457,7 +2451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2743,7 +2737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2815,7 +2809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2829,7 +2823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2843,17 +2837,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H82" s="3" t="s">
+      <c r="C82" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9">
+        <v>45357</v>
+      </c>
+      <c r="F82" s="9">
+        <v>45357</v>
+      </c>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9639D5-C4B5-405E-ACCE-83AB9338440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128729CD-A81F-4C09-99AF-A1B680855EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задания" sheetId="1" r:id="rId1"/>
@@ -758,8 +758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H82" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H82" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H83" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H83" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1113,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,13 +2755,21 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H77" s="3" t="s">
+      <c r="C77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="9">
+        <v>45357</v>
+      </c>
+      <c r="F77" s="9">
+        <v>45357</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2858,6 +2866,9 @@
       <c r="H82" s="7" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E83" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128729CD-A81F-4C09-99AF-A1B680855EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC886F-D73E-40DF-B3DA-CE427EB8CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="163">
   <si>
     <t>Коллекции</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>"Обзор заказов" -&gt; включить в него заказы без размеров (форматнуть в светлый цвет)</t>
+  </si>
+  <si>
+    <t>Работа над интерфейсом для изменения тарифов и времени для заказов,которые уже в производстве</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,7 +2871,18 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E83" s="21"/>
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="21">
+        <v>45362</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC886F-D73E-40DF-B3DA-CE427EB8CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6FCDFF-3FCB-425F-A8F4-004610159205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="167">
   <si>
     <t>Коллекции</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>Работа над интерфейсом для изменения тарифов и времени для заказов,которые уже в производстве</t>
+  </si>
+  <si>
+    <t>Перед обновлением добавить в таблицу "Orders" поле "oQA"</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>Реализовать проверку измененной технологии на отсуствие изменения порядка или кол-ва операций. Если таковые имеют место быть, то автоматически обновлять время и тариф нельзя!</t>
+  </si>
+  <si>
+    <t>Дополнить интерфейс изменения тарифов и времени на любых моделях  и любых операциях (вводится вручную)</t>
   </si>
 </sst>
 </file>
@@ -761,8 +773,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H83" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H83" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H86" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H86" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1116,16 +1128,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="103.28515625" customWidth="1"/>
+    <col min="2" max="2" width="105" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
     <col min="5" max="6" width="18.5703125" style="3" customWidth="1"/>
@@ -2871,16 +2883,82 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E83" s="21">
+      <c r="C83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9">
         <v>45362</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="F83" s="9">
+        <v>45371</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="9">
+        <v>45369</v>
+      </c>
+      <c r="F85" s="9">
+        <v>45371</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="9">
+        <v>45372</v>
+      </c>
+      <c r="F86" s="9">
+        <v>45372</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2897,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247D6E00-BC7E-42BB-9DAF-2FD74399B018}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6FCDFF-3FCB-425F-A8F4-004610159205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACEED9F-7834-4063-9D45-F3039C754688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="169">
   <si>
     <t>Коллекции</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>Дополнить интерфейс изменения тарифов и времени на любых моделях  и любых операциях (вводится вручную)</t>
+  </si>
+  <si>
+    <t>Сохранение предыдущих версий технологий (Traceability)</t>
+  </si>
+  <si>
+    <t>Дополнить печатную форму технологии таблицей/информацией по доп.операциям для определенных размеров</t>
   </si>
 </sst>
 </file>
@@ -773,8 +779,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H86" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H86" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H88" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H88" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1128,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,16 +2839,24 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H80" s="3" t="s">
+      <c r="C80" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="9">
+        <v>45376</v>
+      </c>
+      <c r="F80" s="9">
+        <v>45376</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2960,6 +2974,28 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACEED9F-7834-4063-9D45-F3039C754688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B5777-86F5-4EBC-B6F8-3FF1DB10B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="169">
   <si>
     <t>Коллекции</t>
   </si>
@@ -532,9 +532,6 @@
     <t>Перед обновлением добавить в таблицу "Orders" поле "oQA"</t>
   </si>
   <si>
-    <t>!!!</t>
-  </si>
-  <si>
     <t>Реализовать проверку измененной технологии на отсуствие изменения порядка или кол-ва операций. Если таковые имеют место быть, то автоматически обновлять время и тариф нельзя!</t>
   </si>
   <si>
@@ -545,6 +542,9 @@
   </si>
   <si>
     <t>Дополнить печатную форму технологии таблицей/информацией по доп.операциям для определенных размеров</t>
+  </si>
+  <si>
+    <t>При сохранение предыдущих версий технологий,обеспечить целостность данных по условным доп.операциям (это необходимо в случае, если от версии к версии будут изменены условия/размеры) =&gt; будет полная отслеживаемость</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -718,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -779,8 +782,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H88" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H88" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H90" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H90" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1134,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,7 +2776,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -2919,16 +2922,24 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="C84" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="9">
+        <v>45379</v>
+      </c>
+      <c r="F84" s="9">
+        <v>45379</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2937,7 +2948,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>41</v>
@@ -2959,7 +2970,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>41</v>
@@ -2969,7 +2980,7 @@
         <v>45372</v>
       </c>
       <c r="F86" s="9">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
@@ -2981,7 +2992,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>117</v>
@@ -2992,10 +3003,18 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3481,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TASKS.xlsx
+++ b/TASKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B5777-86F5-4EBC-B6F8-3FF1DB10B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A265F3-920A-41E8-94A3-E95F03264ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="172">
   <si>
     <t>Коллекции</t>
   </si>
@@ -544,7 +544,16 @@
     <t>Дополнить печатную форму технологии таблицей/информацией по доп.операциям для определенных размеров</t>
   </si>
   <si>
-    <t>При сохранение предыдущих версий технологий,обеспечить целостность данных по условным доп.операциям (это необходимо в случае, если от версии к версии будут изменены условия/размеры) =&gt; будет полная отслеживаемость</t>
+    <t>При сохранение предыдущих версий технологий,обеспечить целостность данных по условным доп.операциям (это необходимо в случае, если от версии к версии будут изменены условия/размеры) =&gt; будет полная отслеживаемость =&gt; в условные операции добавить номер конфигурации</t>
+  </si>
+  <si>
+    <t>Сохранять номер предыдущей версии технологии в таблице моделей (поле prevConfig -&gt; Number (Byte))</t>
+  </si>
+  <si>
+    <t>Создать архив для старых технологий, либо отвязать тарифы, либо создать доп. поле для сохранения абсолютной величины тарифа</t>
+  </si>
+  <si>
+    <t>"Сводная трудозатрат" -&gt; нужно каким-то образом отобразить изменение/повышение тарифов, т.к это влияет на общую выработку</t>
   </si>
 </sst>
 </file>
@@ -716,11 +725,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -782,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H90" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H90" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}" name="Table1" displayName="Table1" ref="A1:H92" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:H92" xr:uid="{935A22D1-EBBE-4C29-A282-5443D8AFF715}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
     <sortCondition ref="A1:A42"/>
   </sortState>
@@ -1137,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,33 +2997,107 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="C87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="9">
+        <v>45397</v>
+      </c>
+      <c r="F87" s="9">
+        <v>45399</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>157</v>
+      <c r="C88" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="9">
+        <v>45390</v>
+      </c>
+      <c r="F88" s="9">
+        <v>45394</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="12" t="s">
         <v>168</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="9">
+        <v>45400</v>
+      </c>
+      <c r="F89" s="9">
+        <v>45401</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="9">
+        <v>45404</v>
+      </c>
+      <c r="F90" s="9">
+        <v>45405</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3042,11 +3125,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3100,11 +3183,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3198,11 +3281,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3288,11 +3371,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3338,11 +3421,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3407,11 +3490,11 @@
       <c r="C49" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
